--- a/biology/Botanique/Pandanus_vandermeeschii/Pandanus_vandermeeschii.xlsx
+++ b/biology/Botanique/Pandanus_vandermeeschii/Pandanus_vandermeeschii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pandanus vandermeeschii[2] est un vacoa endémique de l'île Maurice, plante arbustive appartenant au genre Pandanus de la famille des Pandanaceae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pandanus vandermeeschii est un vacoa endémique de l'île Maurice, plante arbustive appartenant au genre Pandanus de la famille des Pandanaceae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce vacoa aux racines aériennes vit sur le littoral. Il peut atteindre 6 à 8 mètres de hauteur et son stipe ramifié, 20 à 25 cm de diamètre. Son écorce verruqueuse est grise tirant sur le rose.
 Ses feuilles peuvent mesurer 50 à 75 cm de longueur, et leurs marges sont subépineuses à l'apex aigu. Les drupes de cette plante mesurent 3 cm et sont groupées par deux cents et plus en syncarpes subglobuleux.
@@ -544,7 +558,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Pandanus vandermeeschii Balf. f. in Baker, F.M.S. : 398., Journ. Linn. Soc., Bot. 17 : 65 (1878)
 </t>
